--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45679</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44903</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44756</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,14 +831,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 61558-2023</t>
+          <t>A 13766-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45265</v>
+        <v>45007</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -850,16 +850,11 @@
           <t>YSTAD</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G5" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -871,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -880,55 +875,55 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Större vattensalamander</t>
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 61558-2023 artfynd.xlsx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 13766-2023 artfynd.xlsx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 61558-2023 karta.png", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 13766-2023 karta.png", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 61558-2023 FSC-klagomål.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 13766-2023 FSC-klagomål.docx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 61558-2023 FSC-klagomål mail.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 13766-2023 FSC-klagomål mail.docx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 61558-2023 tillsynsbegäran.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 13766-2023 tillsynsbegäran.docx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 61558-2023 tillsynsbegäran mail.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 13766-2023 tillsynsbegäran mail.docx", "A 13766-2023")</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 34341-2024</t>
+          <t>A 61558-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45525</v>
+        <v>45265</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -942,11 +937,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>14.4</v>
+        <v>1.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -955,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -973,38 +968,38 @@
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Desmeknopp</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 34341-2024 artfynd.xlsx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 61558-2023 artfynd.xlsx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 34341-2024 karta.png", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 61558-2023 karta.png", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 34341-2024 FSC-klagomål.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 61558-2023 FSC-klagomål.docx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 34341-2024 FSC-klagomål mail.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 61558-2023 FSC-klagomål mail.docx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 34341-2024 tillsynsbegäran.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 61558-2023 tillsynsbegäran.docx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 34341-2024 tillsynsbegäran mail.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 61558-2023 tillsynsbegäran mail.docx", "A 61558-2023")</f>
         <v/>
       </c>
     </row>
@@ -1018,7 +1013,7 @@
         <v>45939</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1096,14 +1091,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 31213-2023</t>
+          <t>A 60891-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45113</v>
+        <v>45644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1116,16 +1111,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>6.5</v>
+        <v>16.1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1140,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1150,45 +1145,45 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Skogsveronika</t>
+          <t>Lövgroda</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 31213-2023 artfynd.xlsx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 60891-2024 artfynd.xlsx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 31213-2023 karta.png", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 60891-2024 karta.png", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 31213-2023 FSC-klagomål.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 60891-2024 FSC-klagomål.docx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 31213-2023 FSC-klagomål mail.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 60891-2024 FSC-klagomål mail.docx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 31213-2023 tillsynsbegäran.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 60891-2024 tillsynsbegäran.docx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 31213-2023 tillsynsbegäran mail.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 60891-2024 tillsynsbegäran mail.docx", "A 60891-2024")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 13766-2023</t>
+          <t>A 31213-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45007</v>
+        <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1201,16 +1196,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.9</v>
+        <v>6.5</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1225,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1235,45 +1230,45 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Större vattensalamander</t>
+          <t>Skogsveronika</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 13766-2023 artfynd.xlsx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 31213-2023 artfynd.xlsx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 13766-2023 karta.png", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 31213-2023 karta.png", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 13766-2023 FSC-klagomål.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 31213-2023 FSC-klagomål.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 13766-2023 FSC-klagomål mail.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 31213-2023 FSC-klagomål mail.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 13766-2023 tillsynsbegäran.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 31213-2023 tillsynsbegäran.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 13766-2023 tillsynsbegäran mail.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 31213-2023 tillsynsbegäran mail.docx", "A 31213-2023")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 60891-2024</t>
+          <t>A 34341-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45644</v>
+        <v>45525</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1285,17 +1280,22 @@
           <t>YSTAD</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>16.1</v>
+        <v>14.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1320,31 +1320,31 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Lövgroda</t>
+          <t>Desmeknopp</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 60891-2024 artfynd.xlsx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 34341-2024 artfynd.xlsx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 60891-2024 karta.png", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 34341-2024 karta.png", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 60891-2024 FSC-klagomål.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 34341-2024 FSC-klagomål.docx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 60891-2024 FSC-klagomål mail.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 34341-2024 FSC-klagomål mail.docx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 60891-2024 tillsynsbegäran.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 34341-2024 tillsynsbegäran.docx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 60891-2024 tillsynsbegäran mail.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 34341-2024 tillsynsbegäran mail.docx", "A 34341-2024")</f>
         <v/>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
         <v>44393</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>44393</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>44617</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1522,14 +1522,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 40417-2022</t>
+          <t>A 49536-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44823</v>
+        <v>45939.4221875</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1579,14 +1579,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 34302-2024</t>
+          <t>A 49543-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45524</v>
+        <v>45939.42862268518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1636,14 +1636,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 49536-2025</t>
+          <t>A 32596-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45939.4221875</v>
+        <v>45513.61667824074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1693,14 +1693,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 49543-2025</t>
+          <t>A 49549-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45939.42862268518</v>
+        <v>45939</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1750,14 +1750,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 49549-2025</t>
+          <t>A 40417-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45939</v>
+        <v>44823</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1807,14 +1807,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 60803-2023</t>
+          <t>A 18090-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45260</v>
+        <v>44684</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.6</v>
+        <v>4.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1864,14 +1864,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 38631-2023</t>
+          <t>A 60803-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45162</v>
+        <v>45260</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1921,14 +1921,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 18090-2022</t>
+          <t>A 38631-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44684</v>
+        <v>45162</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.9</v>
+        <v>0.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>45069.74605324074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2040,14 +2040,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 32596-2024</t>
+          <t>A 34302-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45513.61667824074</v>
+        <v>45524</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>

--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45679</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44903</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44756</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45007</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>45265</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>45939</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>45644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>45525</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44393</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>44393</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>44617</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>45939.4221875</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45939.42862268518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45513.61667824074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>45939</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>44823</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>44684</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>45260</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>45162</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>45069.74605324074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>45524</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45679</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44903</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44756</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45007</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>45265</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>45939</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>45644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>45525</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44393</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>44393</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>44617</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>45939.4221875</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45939.42862268518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45513.61667824074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>45939</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>44823</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>44684</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>45260</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>45162</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>45069.74605324074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>45524</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45679</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44903</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44756</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,14 +831,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 13766-2023</t>
+          <t>A 34341-2024</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45007</v>
+        <v>45525</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -850,17 +850,22 @@
           <t>YSTAD</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G5" t="n">
-        <v>0.9</v>
+        <v>14.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -875,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -885,31 +890,31 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>Större vattensalamander</t>
+          <t>Desmeknopp</t>
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 13766-2023 artfynd.xlsx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 34341-2024 artfynd.xlsx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 13766-2023 karta.png", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 34341-2024 karta.png", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 13766-2023 FSC-klagomål.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 34341-2024 FSC-klagomål.docx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 13766-2023 FSC-klagomål mail.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 34341-2024 FSC-klagomål mail.docx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 13766-2023 tillsynsbegäran.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 34341-2024 tillsynsbegäran.docx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 13766-2023 tillsynsbegäran mail.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 34341-2024 tillsynsbegäran mail.docx", "A 34341-2024")</f>
         <v/>
       </c>
     </row>
@@ -923,7 +928,7 @@
         <v>45265</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1006,14 +1011,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 49546-2025</t>
+          <t>A 31213-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45939</v>
+        <v>45113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1026,16 +1031,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.4</v>
+        <v>6.5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1050,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1060,45 +1065,45 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Igelkottsröksvamp</t>
+          <t>Skogsveronika</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 49546-2025 artfynd.xlsx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 31213-2023 artfynd.xlsx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 49546-2025 karta.png", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 31213-2023 karta.png", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 49546-2025 FSC-klagomål.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 31213-2023 FSC-klagomål.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 49546-2025 FSC-klagomål mail.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 31213-2023 FSC-klagomål mail.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 49546-2025 tillsynsbegäran.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 31213-2023 tillsynsbegäran.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 49546-2025 tillsynsbegäran mail.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 31213-2023 tillsynsbegäran mail.docx", "A 31213-2023")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 60891-2024</t>
+          <t>A 49546-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45644</v>
+        <v>45939</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1111,13 +1116,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>16.1</v>
+        <v>4.4</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1145,45 +1150,45 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Lövgroda</t>
+          <t>Igelkottsröksvamp</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 60891-2024 artfynd.xlsx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 49546-2025 artfynd.xlsx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 60891-2024 karta.png", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 49546-2025 karta.png", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 60891-2024 FSC-klagomål.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 49546-2025 FSC-klagomål.docx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 60891-2024 FSC-klagomål mail.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 49546-2025 FSC-klagomål mail.docx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 60891-2024 tillsynsbegäran.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 49546-2025 tillsynsbegäran.docx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 60891-2024 tillsynsbegäran mail.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 49546-2025 tillsynsbegäran mail.docx", "A 49546-2025")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 31213-2023</t>
+          <t>A 13766-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45113</v>
+        <v>45007</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1196,16 +1201,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>6.5</v>
+        <v>0.9</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1220,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1230,45 +1235,45 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Skogsveronika</t>
+          <t>Större vattensalamander</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 31213-2023 artfynd.xlsx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 13766-2023 artfynd.xlsx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 31213-2023 karta.png", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 13766-2023 karta.png", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 31213-2023 FSC-klagomål.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 13766-2023 FSC-klagomål.docx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 31213-2023 FSC-klagomål mail.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 13766-2023 FSC-klagomål mail.docx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 31213-2023 tillsynsbegäran.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 13766-2023 tillsynsbegäran.docx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 31213-2023 tillsynsbegäran mail.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 13766-2023 tillsynsbegäran mail.docx", "A 13766-2023")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 34341-2024</t>
+          <t>A 60891-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45525</v>
+        <v>45644</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1280,22 +1285,17 @@
           <t>YSTAD</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>14.4</v>
+        <v>16.1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1320,31 +1320,31 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Desmeknopp</t>
+          <t>Lövgroda</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 34341-2024 artfynd.xlsx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 60891-2024 artfynd.xlsx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 34341-2024 karta.png", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 60891-2024 karta.png", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 34341-2024 FSC-klagomål.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 60891-2024 FSC-klagomål.docx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 34341-2024 FSC-klagomål mail.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 60891-2024 FSC-klagomål mail.docx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 34341-2024 tillsynsbegäran.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 60891-2024 tillsynsbegäran.docx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 34341-2024 tillsynsbegäran mail.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 60891-2024 tillsynsbegäran mail.docx", "A 60891-2024")</f>
         <v/>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
         <v>44393</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>44393</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>44617</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1522,14 +1522,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 49536-2025</t>
+          <t>A 40417-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45939.4221875</v>
+        <v>44823</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1579,14 +1579,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 49543-2025</t>
+          <t>A 34302-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45939.42862268518</v>
+        <v>45524</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1636,14 +1636,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 32596-2024</t>
+          <t>A 60803-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45513.61667824074</v>
+        <v>45260</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1693,14 +1693,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 49549-2025</t>
+          <t>A 32596-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45939</v>
+        <v>45513.61667824074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1750,14 +1750,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 40417-2022</t>
+          <t>A 49536-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44823</v>
+        <v>45939.4221875</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1807,14 +1807,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 18090-2022</t>
+          <t>A 49543-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44684</v>
+        <v>45939.42862268518</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.9</v>
+        <v>1.4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1864,14 +1864,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 60803-2023</t>
+          <t>A 49549-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45260</v>
+        <v>45939</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1928,7 +1928,7 @@
         <v>45162</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1978,14 +1978,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 22195-2023</t>
+          <t>A 18090-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45069.74605324074</v>
+        <v>44684</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1997,13 +1997,8 @@
           <t>YSTAD</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>1.1</v>
+        <v>4.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2040,14 +2035,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 34302-2024</t>
+          <t>A 22195-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45524</v>
+        <v>45069.74605324074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,8 +2054,13 @@
           <t>YSTAD</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>

--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45679</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44903</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44756</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,14 +831,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 34341-2024</t>
+          <t>A 61558-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45525</v>
+        <v>45265</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -852,11 +852,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>14.4</v>
+        <v>1.5</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -883,52 +883,52 @@
         <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>Desmeknopp</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 34341-2024 artfynd.xlsx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 61558-2023 artfynd.xlsx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 34341-2024 karta.png", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 61558-2023 karta.png", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 34341-2024 FSC-klagomål.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 61558-2023 FSC-klagomål.docx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 34341-2024 FSC-klagomål mail.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 61558-2023 FSC-klagomål mail.docx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 34341-2024 tillsynsbegäran.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 61558-2023 tillsynsbegäran.docx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 34341-2024 tillsynsbegäran mail.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 61558-2023 tillsynsbegäran mail.docx", "A 61558-2023")</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 61558-2023</t>
+          <t>A 13766-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45265</v>
+        <v>45007</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -940,16 +940,11 @@
           <t>YSTAD</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G6" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -961,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -970,55 +965,55 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Större vattensalamander</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 61558-2023 artfynd.xlsx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 13766-2023 artfynd.xlsx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 61558-2023 karta.png", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 13766-2023 karta.png", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 61558-2023 FSC-klagomål.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 13766-2023 FSC-klagomål.docx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 61558-2023 FSC-klagomål mail.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 13766-2023 FSC-klagomål mail.docx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 61558-2023 tillsynsbegäran.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 13766-2023 tillsynsbegäran.docx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 61558-2023 tillsynsbegäran mail.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 13766-2023 tillsynsbegäran mail.docx", "A 13766-2023")</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 31213-2023</t>
+          <t>A 60891-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45113</v>
+        <v>45644</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1031,16 +1026,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>6.5</v>
+        <v>16.1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1055,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1065,31 +1060,31 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Skogsveronika</t>
+          <t>Lövgroda</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 31213-2023 artfynd.xlsx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 60891-2024 artfynd.xlsx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 31213-2023 karta.png", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 60891-2024 karta.png", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 31213-2023 FSC-klagomål.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 60891-2024 FSC-klagomål.docx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 31213-2023 FSC-klagomål mail.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 60891-2024 FSC-klagomål mail.docx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 31213-2023 tillsynsbegäran.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 60891-2024 tillsynsbegäran.docx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 31213-2023 tillsynsbegäran mail.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 60891-2024 tillsynsbegäran mail.docx", "A 60891-2024")</f>
         <v/>
       </c>
     </row>
@@ -1103,7 +1098,7 @@
         <v>45939</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1181,14 +1176,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 13766-2023</t>
+          <t>A 31213-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45007</v>
+        <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1201,16 +1196,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.9</v>
+        <v>6.5</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1225,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1235,45 +1230,45 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Större vattensalamander</t>
+          <t>Skogsveronika</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 13766-2023 artfynd.xlsx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 31213-2023 artfynd.xlsx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 13766-2023 karta.png", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 31213-2023 karta.png", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 13766-2023 FSC-klagomål.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 31213-2023 FSC-klagomål.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 13766-2023 FSC-klagomål mail.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 31213-2023 FSC-klagomål mail.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 13766-2023 tillsynsbegäran.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 31213-2023 tillsynsbegäran.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 13766-2023 tillsynsbegäran mail.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 31213-2023 tillsynsbegäran mail.docx", "A 31213-2023")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 60891-2024</t>
+          <t>A 34341-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45644</v>
+        <v>45525</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1285,17 +1280,22 @@
           <t>YSTAD</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>16.1</v>
+        <v>14.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1320,31 +1320,31 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Lövgroda</t>
+          <t>Desmeknopp</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 60891-2024 artfynd.xlsx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 34341-2024 artfynd.xlsx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 60891-2024 karta.png", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 34341-2024 karta.png", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 60891-2024 FSC-klagomål.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 34341-2024 FSC-klagomål.docx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 60891-2024 FSC-klagomål mail.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 34341-2024 FSC-klagomål mail.docx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 60891-2024 tillsynsbegäran.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 34341-2024 tillsynsbegäran.docx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 60891-2024 tillsynsbegäran mail.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 34341-2024 tillsynsbegäran mail.docx", "A 34341-2024")</f>
         <v/>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
         <v>44393</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>44393</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>44617</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1522,14 +1522,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 40417-2022</t>
+          <t>A 34302-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44823</v>
+        <v>45524</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1579,14 +1579,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 34302-2024</t>
+          <t>A 49536-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45524</v>
+        <v>45939.4221875</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1636,14 +1636,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 60803-2023</t>
+          <t>A 32596-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45260</v>
+        <v>45513.61667824074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1693,14 +1693,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 32596-2024</t>
+          <t>A 49543-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45513.61667824074</v>
+        <v>45939.42862268518</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1750,14 +1750,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 49536-2025</t>
+          <t>A 49549-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45939.4221875</v>
+        <v>45939</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1807,14 +1807,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 49543-2025</t>
+          <t>A 40417-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45939.42862268518</v>
+        <v>44823</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1864,14 +1864,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 49549-2025</t>
+          <t>A 18090-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45939</v>
+        <v>44684</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>4.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1921,14 +1921,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 38631-2023</t>
+          <t>A 60803-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45162</v>
+        <v>45260</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1978,14 +1978,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 18090-2022</t>
+          <t>A 38631-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44684</v>
+        <v>45162</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.9</v>
+        <v>0.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>45069.74605324074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45679</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44903</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44756</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,14 +831,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 61558-2023</t>
+          <t>A 13766-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45265</v>
+        <v>45007</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -850,16 +850,11 @@
           <t>YSTAD</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G5" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -871,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -880,55 +875,55 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Större vattensalamander</t>
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 61558-2023 artfynd.xlsx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 13766-2023 artfynd.xlsx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 61558-2023 karta.png", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 13766-2023 karta.png", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 61558-2023 FSC-klagomål.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 13766-2023 FSC-klagomål.docx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 61558-2023 FSC-klagomål mail.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 13766-2023 FSC-klagomål mail.docx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 61558-2023 tillsynsbegäran.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 13766-2023 tillsynsbegäran.docx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 61558-2023 tillsynsbegäran mail.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 13766-2023 tillsynsbegäran mail.docx", "A 13766-2023")</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 13766-2023</t>
+          <t>A 34341-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45007</v>
+        <v>45525</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -940,17 +935,22 @@
           <t>YSTAD</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>0.9</v>
+        <v>14.4</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -975,31 +975,31 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Större vattensalamander</t>
+          <t>Desmeknopp</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 13766-2023 artfynd.xlsx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 34341-2024 artfynd.xlsx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 13766-2023 karta.png", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 34341-2024 karta.png", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 13766-2023 FSC-klagomål.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 34341-2024 FSC-klagomål.docx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 13766-2023 FSC-klagomål mail.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 34341-2024 FSC-klagomål mail.docx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 13766-2023 tillsynsbegäran.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 34341-2024 tillsynsbegäran.docx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 13766-2023 tillsynsbegäran mail.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 34341-2024 tillsynsbegäran mail.docx", "A 34341-2024")</f>
         <v/>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
         <v>45644</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1091,14 +1091,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 49546-2025</t>
+          <t>A 31213-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45939</v>
+        <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.4</v>
+        <v>6.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1145,45 +1145,45 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Igelkottsröksvamp</t>
+          <t>Skogsveronika</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 49546-2025 artfynd.xlsx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 31213-2023 artfynd.xlsx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 49546-2025 karta.png", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 31213-2023 karta.png", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 49546-2025 FSC-klagomål.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 31213-2023 FSC-klagomål.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 49546-2025 FSC-klagomål mail.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 31213-2023 FSC-klagomål mail.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 49546-2025 tillsynsbegäran.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 31213-2023 tillsynsbegäran.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 49546-2025 tillsynsbegäran mail.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 31213-2023 tillsynsbegäran mail.docx", "A 31213-2023")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 31213-2023</t>
+          <t>A 61558-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45113</v>
+        <v>45265</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1195,8 +1195,13 @@
           <t>YSTAD</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1205,13 +1210,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1223,52 +1228,52 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Skogsveronika</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 31213-2023 artfynd.xlsx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 61558-2023 artfynd.xlsx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 31213-2023 karta.png", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 61558-2023 karta.png", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 31213-2023 FSC-klagomål.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 61558-2023 FSC-klagomål.docx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 31213-2023 FSC-klagomål mail.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 61558-2023 FSC-klagomål mail.docx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 31213-2023 tillsynsbegäran.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 61558-2023 tillsynsbegäran.docx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 31213-2023 tillsynsbegäran mail.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 61558-2023 tillsynsbegäran mail.docx", "A 61558-2023")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 34341-2024</t>
+          <t>A 49546-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45525</v>
+        <v>45939</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1280,22 +1285,17 @@
           <t>YSTAD</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>14.4</v>
+        <v>4.4</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1320,31 +1320,31 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Desmeknopp</t>
+          <t>Igelkottsröksvamp</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 34341-2024 artfynd.xlsx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 49546-2025 artfynd.xlsx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 34341-2024 karta.png", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 49546-2025 karta.png", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 34341-2024 FSC-klagomål.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 49546-2025 FSC-klagomål.docx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 34341-2024 FSC-klagomål mail.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 49546-2025 FSC-klagomål mail.docx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 34341-2024 tillsynsbegäran.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 49546-2025 tillsynsbegäran.docx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 34341-2024 tillsynsbegäran mail.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 49546-2025 tillsynsbegäran mail.docx", "A 49546-2025")</f>
         <v/>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
         <v>44393</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>44393</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>44617</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1522,14 +1522,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 34302-2024</t>
+          <t>A 40417-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45524</v>
+        <v>44823</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1579,14 +1579,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 49536-2025</t>
+          <t>A 34302-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45939.4221875</v>
+        <v>45524</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1636,14 +1636,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 32596-2024</t>
+          <t>A 60803-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45513.61667824074</v>
+        <v>45260</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1693,14 +1693,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 49543-2025</t>
+          <t>A 38631-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45939.42862268518</v>
+        <v>45162</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1750,14 +1750,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 49549-2025</t>
+          <t>A 18090-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45939</v>
+        <v>44684</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>4.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1807,14 +1807,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 40417-2022</t>
+          <t>A 32596-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44823</v>
+        <v>45513.61667824074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1864,14 +1864,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 18090-2022</t>
+          <t>A 22195-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44684</v>
+        <v>45069.74605324074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1883,8 +1883,13 @@
           <t>YSTAD</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>4.9</v>
+        <v>1.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1921,14 +1926,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 60803-2023</t>
+          <t>A 49536-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45260</v>
+        <v>45939.4221875</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1941,7 +1946,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1978,14 +1983,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 38631-2023</t>
+          <t>A 49543-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45162</v>
+        <v>45939.42862268518</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1998,7 +2003,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2035,14 +2040,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 22195-2023</t>
+          <t>A 49549-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45069.74605324074</v>
+        <v>45939</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2054,13 +2059,8 @@
           <t>YSTAD</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>

--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45679</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44903</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44756</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45007</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,14 +916,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 34341-2024</t>
+          <t>A 61558-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45525</v>
+        <v>45265</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -937,11 +937,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>14.4</v>
+        <v>1.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -968,38 +968,38 @@
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Desmeknopp</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 34341-2024 artfynd.xlsx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 61558-2023 artfynd.xlsx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 34341-2024 karta.png", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 61558-2023 karta.png", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 34341-2024 FSC-klagomål.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 61558-2023 FSC-klagomål.docx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 34341-2024 FSC-klagomål mail.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 61558-2023 FSC-klagomål mail.docx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 34341-2024 tillsynsbegäran.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 61558-2023 tillsynsbegäran.docx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 34341-2024 tillsynsbegäran mail.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 61558-2023 tillsynsbegäran mail.docx", "A 61558-2023")</f>
         <v/>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
         <v>45644</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1091,14 +1091,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 31213-2023</t>
+          <t>A 49546-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45113</v>
+        <v>45939</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>6.5</v>
+        <v>4.4</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1145,45 +1145,45 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Skogsveronika</t>
+          <t>Igelkottsröksvamp</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 31213-2023 artfynd.xlsx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 49546-2025 artfynd.xlsx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 31213-2023 karta.png", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 49546-2025 karta.png", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 31213-2023 FSC-klagomål.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 49546-2025 FSC-klagomål.docx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 31213-2023 FSC-klagomål mail.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 49546-2025 FSC-klagomål mail.docx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 31213-2023 tillsynsbegäran.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 49546-2025 tillsynsbegäran.docx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 31213-2023 tillsynsbegäran mail.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 49546-2025 tillsynsbegäran mail.docx", "A 49546-2025")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 61558-2023</t>
+          <t>A 31213-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45265</v>
+        <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1195,13 +1195,8 @@
           <t>YSTAD</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1210,13 +1205,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1228,52 +1223,52 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Skogsveronika</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 61558-2023 artfynd.xlsx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 31213-2023 artfynd.xlsx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 61558-2023 karta.png", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 31213-2023 karta.png", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 61558-2023 FSC-klagomål.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 31213-2023 FSC-klagomål.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 61558-2023 FSC-klagomål mail.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 31213-2023 FSC-klagomål mail.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 61558-2023 tillsynsbegäran.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 31213-2023 tillsynsbegäran.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 61558-2023 tillsynsbegäran mail.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 31213-2023 tillsynsbegäran mail.docx", "A 31213-2023")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 49546-2025</t>
+          <t>A 34341-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45939</v>
+        <v>45525</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1285,17 +1280,22 @@
           <t>YSTAD</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>4.4</v>
+        <v>14.4</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1320,31 +1320,31 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Igelkottsröksvamp</t>
+          <t>Desmeknopp</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 49546-2025 artfynd.xlsx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 34341-2024 artfynd.xlsx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 49546-2025 karta.png", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 34341-2024 karta.png", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 49546-2025 FSC-klagomål.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 34341-2024 FSC-klagomål.docx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 49546-2025 FSC-klagomål mail.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 34341-2024 FSC-klagomål mail.docx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 49546-2025 tillsynsbegäran.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 34341-2024 tillsynsbegäran.docx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 49546-2025 tillsynsbegäran mail.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 34341-2024 tillsynsbegäran mail.docx", "A 34341-2024")</f>
         <v/>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
         <v>44393</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>44393</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>44617</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1522,14 +1522,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 40417-2022</t>
+          <t>A 32596-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44823</v>
+        <v>45513.61667824074</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1579,14 +1579,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 34302-2024</t>
+          <t>A 40417-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45524</v>
+        <v>44823</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1636,14 +1636,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 60803-2023</t>
+          <t>A 49536-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45260</v>
+        <v>45939.4221875</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1693,14 +1693,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 38631-2023</t>
+          <t>A 49543-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45162</v>
+        <v>45939.42862268518</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1750,14 +1750,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 18090-2022</t>
+          <t>A 49549-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44684</v>
+        <v>45939</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.9</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1807,14 +1807,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 32596-2024</t>
+          <t>A 18090-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45513.61667824074</v>
+        <v>44684</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.6</v>
+        <v>4.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1864,14 +1864,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 22195-2023</t>
+          <t>A 60803-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45069.74605324074</v>
+        <v>45260</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1883,13 +1883,8 @@
           <t>YSTAD</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1926,14 +1921,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 49536-2025</t>
+          <t>A 38631-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45939.4221875</v>
+        <v>45162</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1946,7 +1941,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1983,14 +1978,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 49543-2025</t>
+          <t>A 22195-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45939.42862268518</v>
+        <v>45069.74605324074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,8 +1997,13 @@
           <t>YSTAD</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2040,14 +2040,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 49549-2025</t>
+          <t>A 34302-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45939</v>
+        <v>45524</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>

--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45679</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44903</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44756</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45007</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>45265</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1006,14 +1006,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 60891-2024</t>
+          <t>A 49546-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45644</v>
+        <v>45939</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1026,13 +1026,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>16.1</v>
+        <v>4.4</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1060,45 +1060,45 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Lövgroda</t>
+          <t>Igelkottsröksvamp</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 60891-2024 artfynd.xlsx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 49546-2025 artfynd.xlsx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 60891-2024 karta.png", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 49546-2025 karta.png", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 60891-2024 FSC-klagomål.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 49546-2025 FSC-klagomål.docx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 60891-2024 FSC-klagomål mail.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 49546-2025 FSC-klagomål mail.docx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 60891-2024 tillsynsbegäran.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 49546-2025 tillsynsbegäran.docx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 60891-2024 tillsynsbegäran mail.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 49546-2025 tillsynsbegäran mail.docx", "A 49546-2025")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 49546-2025</t>
+          <t>A 60891-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45939</v>
+        <v>45644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.4</v>
+        <v>16.1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1145,31 +1145,31 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Igelkottsröksvamp</t>
+          <t>Lövgroda</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 49546-2025 artfynd.xlsx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 60891-2024 artfynd.xlsx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 49546-2025 karta.png", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 60891-2024 karta.png", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 49546-2025 FSC-klagomål.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 60891-2024 FSC-klagomål.docx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 49546-2025 FSC-klagomål mail.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 60891-2024 FSC-klagomål mail.docx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 49546-2025 tillsynsbegäran.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 60891-2024 tillsynsbegäran.docx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 49546-2025 tillsynsbegäran mail.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 60891-2024 tillsynsbegäran mail.docx", "A 60891-2024")</f>
         <v/>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>45525</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44393</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>44393</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>44617</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>45513.61667824074</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1579,14 +1579,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 40417-2022</t>
+          <t>A 49536-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44823</v>
+        <v>45939.4221875</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1636,14 +1636,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 49536-2025</t>
+          <t>A 49543-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45939.4221875</v>
+        <v>45939.42862268518</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1693,14 +1693,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 49543-2025</t>
+          <t>A 49549-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45939.42862268518</v>
+        <v>45939</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1750,14 +1750,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 49549-2025</t>
+          <t>A 40417-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45939</v>
+        <v>44823</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1814,7 +1814,7 @@
         <v>44684</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>45260</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>45162</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>45069.74605324074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>45524</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45679</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44903</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44756</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,14 +831,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 13766-2023</t>
+          <t>A 61558-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45007</v>
+        <v>45265</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -850,11 +850,16 @@
           <t>YSTAD</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G5" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -866,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -875,55 +880,55 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>Större vattensalamander</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 13766-2023 artfynd.xlsx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 61558-2023 artfynd.xlsx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 13766-2023 karta.png", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 61558-2023 karta.png", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 13766-2023 FSC-klagomål.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 61558-2023 FSC-klagomål.docx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 13766-2023 FSC-klagomål mail.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 61558-2023 FSC-klagomål mail.docx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 13766-2023 tillsynsbegäran.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 61558-2023 tillsynsbegäran.docx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 13766-2023 tillsynsbegäran mail.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 61558-2023 tillsynsbegäran mail.docx", "A 61558-2023")</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 61558-2023</t>
+          <t>A 13766-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45265</v>
+        <v>45007</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -935,16 +940,11 @@
           <t>YSTAD</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G6" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -965,55 +965,55 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Större vattensalamander</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 61558-2023 artfynd.xlsx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 13766-2023 artfynd.xlsx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 61558-2023 karta.png", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 13766-2023 karta.png", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 61558-2023 FSC-klagomål.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 13766-2023 FSC-klagomål.docx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 61558-2023 FSC-klagomål mail.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 13766-2023 FSC-klagomål mail.docx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 61558-2023 tillsynsbegäran.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 13766-2023 tillsynsbegäran.docx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 61558-2023 tillsynsbegäran mail.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 13766-2023 tillsynsbegäran mail.docx", "A 13766-2023")</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 49546-2025</t>
+          <t>A 60891-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45939</v>
+        <v>45644</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1026,13 +1026,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.4</v>
+        <v>16.1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1060,45 +1060,45 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Igelkottsröksvamp</t>
+          <t>Lövgroda</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 49546-2025 artfynd.xlsx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 60891-2024 artfynd.xlsx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 49546-2025 karta.png", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 60891-2024 karta.png", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 49546-2025 FSC-klagomål.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 60891-2024 FSC-klagomål.docx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 49546-2025 FSC-klagomål mail.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 60891-2024 FSC-klagomål mail.docx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 49546-2025 tillsynsbegäran.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 60891-2024 tillsynsbegäran.docx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 49546-2025 tillsynsbegäran mail.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 60891-2024 tillsynsbegäran mail.docx", "A 60891-2024")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 60891-2024</t>
+          <t>A 49546-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45644</v>
+        <v>45939</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>16.1</v>
+        <v>4.4</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1145,31 +1145,31 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Lövgroda</t>
+          <t>Igelkottsröksvamp</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 60891-2024 artfynd.xlsx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 49546-2025 artfynd.xlsx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 60891-2024 karta.png", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 49546-2025 karta.png", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 60891-2024 FSC-klagomål.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 49546-2025 FSC-klagomål.docx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 60891-2024 FSC-klagomål mail.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 49546-2025 FSC-klagomål mail.docx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 60891-2024 tillsynsbegäran.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 49546-2025 tillsynsbegäran.docx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 60891-2024 tillsynsbegäran mail.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 49546-2025 tillsynsbegäran mail.docx", "A 49546-2025")</f>
         <v/>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>45525</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44393</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>44393</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>44617</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1522,14 +1522,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 32596-2024</t>
+          <t>A 49536-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45513.61667824074</v>
+        <v>45939.4221875</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1579,14 +1579,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 49536-2025</t>
+          <t>A 49543-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45939.4221875</v>
+        <v>45939.42862268518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1636,14 +1636,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 49543-2025</t>
+          <t>A 32596-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45939.42862268518</v>
+        <v>45513.61667824074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1693,14 +1693,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 49549-2025</t>
+          <t>A 40417-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45939</v>
+        <v>44823</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1750,14 +1750,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 40417-2022</t>
+          <t>A 18090-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44823</v>
+        <v>44684</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.3</v>
+        <v>4.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1807,14 +1807,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 18090-2022</t>
+          <t>A 60803-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44684</v>
+        <v>45260</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.9</v>
+        <v>1.6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1864,14 +1864,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 60803-2023</t>
+          <t>A 49549-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45260</v>
+        <v>45939</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1928,7 +1928,7 @@
         <v>45162</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>45069.74605324074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>45524</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45679</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44903</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44756</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45265</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -921,14 +921,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 13766-2023</t>
+          <t>A 34341-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45007</v>
+        <v>45525</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -940,17 +940,22 @@
           <t>YSTAD</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>0.9</v>
+        <v>14.4</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -965,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -975,45 +980,45 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Större vattensalamander</t>
+          <t>Desmeknopp</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 13766-2023 artfynd.xlsx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 34341-2024 artfynd.xlsx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 13766-2023 karta.png", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 34341-2024 karta.png", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 13766-2023 FSC-klagomål.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 34341-2024 FSC-klagomål.docx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 13766-2023 FSC-klagomål mail.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 34341-2024 FSC-klagomål mail.docx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 13766-2023 tillsynsbegäran.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 34341-2024 tillsynsbegäran.docx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 13766-2023 tillsynsbegäran mail.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 34341-2024 tillsynsbegäran mail.docx", "A 34341-2024")</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 60891-2024</t>
+          <t>A 31213-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45644</v>
+        <v>45113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1026,16 +1031,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>16.1</v>
+        <v>6.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1050,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1060,45 +1065,45 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Lövgroda</t>
+          <t>Skogsveronika</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 60891-2024 artfynd.xlsx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 31213-2023 artfynd.xlsx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 60891-2024 karta.png", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 31213-2023 karta.png", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 60891-2024 FSC-klagomål.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 31213-2023 FSC-klagomål.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 60891-2024 FSC-klagomål mail.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 31213-2023 FSC-klagomål mail.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 60891-2024 tillsynsbegäran.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 31213-2023 tillsynsbegäran.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 60891-2024 tillsynsbegäran mail.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 31213-2023 tillsynsbegäran mail.docx", "A 31213-2023")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 49546-2025</t>
+          <t>A 13766-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45939</v>
+        <v>45007</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1111,13 +1116,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.4</v>
+        <v>0.9</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1145,45 +1150,45 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Igelkottsröksvamp</t>
+          <t>Större vattensalamander</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 49546-2025 artfynd.xlsx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 13766-2023 artfynd.xlsx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 49546-2025 karta.png", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 13766-2023 karta.png", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 49546-2025 FSC-klagomål.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 13766-2023 FSC-klagomål.docx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 49546-2025 FSC-klagomål mail.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 13766-2023 FSC-klagomål mail.docx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 49546-2025 tillsynsbegäran.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 13766-2023 tillsynsbegäran.docx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 49546-2025 tillsynsbegäran mail.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 13766-2023 tillsynsbegäran mail.docx", "A 13766-2023")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 31213-2023</t>
+          <t>A 49546-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45113</v>
+        <v>45939</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1196,16 +1201,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>6.5</v>
+        <v>4.4</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1220,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1230,45 +1235,45 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Skogsveronika</t>
+          <t>Igelkottsröksvamp</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 31213-2023 artfynd.xlsx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 49546-2025 artfynd.xlsx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 31213-2023 karta.png", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 49546-2025 karta.png", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 31213-2023 FSC-klagomål.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 49546-2025 FSC-klagomål.docx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 31213-2023 FSC-klagomål mail.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 49546-2025 FSC-klagomål mail.docx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 31213-2023 tillsynsbegäran.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 49546-2025 tillsynsbegäran.docx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 31213-2023 tillsynsbegäran mail.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 49546-2025 tillsynsbegäran mail.docx", "A 49546-2025")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 34341-2024</t>
+          <t>A 60891-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45525</v>
+        <v>45644</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1280,22 +1285,17 @@
           <t>YSTAD</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>14.4</v>
+        <v>16.1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1320,31 +1320,31 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Desmeknopp</t>
+          <t>Lövgroda</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 34341-2024 artfynd.xlsx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 60891-2024 artfynd.xlsx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 34341-2024 karta.png", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 60891-2024 karta.png", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 34341-2024 FSC-klagomål.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 60891-2024 FSC-klagomål.docx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 34341-2024 FSC-klagomål mail.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 60891-2024 FSC-klagomål mail.docx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 34341-2024 tillsynsbegäran.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 60891-2024 tillsynsbegäran.docx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 34341-2024 tillsynsbegäran mail.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 60891-2024 tillsynsbegäran mail.docx", "A 60891-2024")</f>
         <v/>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
         <v>44393</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>44393</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>44617</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1522,14 +1522,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 49536-2025</t>
+          <t>A 40417-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45939.4221875</v>
+        <v>44823</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1579,14 +1579,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 49543-2025</t>
+          <t>A 49536-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45939.42862268518</v>
+        <v>45939.4221875</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1636,14 +1636,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 32596-2024</t>
+          <t>A 49543-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45513.61667824074</v>
+        <v>45939.42862268518</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1693,14 +1693,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 40417-2022</t>
+          <t>A 34302-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44823</v>
+        <v>45524</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1750,14 +1750,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 18090-2022</t>
+          <t>A 32596-2024</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44684</v>
+        <v>45513.61667824074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.9</v>
+        <v>2.6</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1814,7 +1814,7 @@
         <v>45260</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>45939</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>45162</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1978,14 +1978,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 22195-2023</t>
+          <t>A 18090-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45069.74605324074</v>
+        <v>44684</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1997,13 +1997,8 @@
           <t>YSTAD</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>1.1</v>
+        <v>4.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2040,14 +2035,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 34302-2024</t>
+          <t>A 22195-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45524</v>
+        <v>45069.74605324074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,8 +2054,13 @@
           <t>YSTAD</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>

--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45679</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44903</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44756</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,14 +831,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 61558-2023</t>
+          <t>A 13766-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45265</v>
+        <v>45007</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -850,16 +850,11 @@
           <t>YSTAD</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G5" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -871,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -880,55 +875,55 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Större vattensalamander</t>
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 61558-2023 artfynd.xlsx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 13766-2023 artfynd.xlsx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 61558-2023 karta.png", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 13766-2023 karta.png", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 61558-2023 FSC-klagomål.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 13766-2023 FSC-klagomål.docx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 61558-2023 FSC-klagomål mail.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 13766-2023 FSC-klagomål mail.docx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 61558-2023 tillsynsbegäran.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 13766-2023 tillsynsbegäran.docx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 61558-2023 tillsynsbegäran mail.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 13766-2023 tillsynsbegäran mail.docx", "A 13766-2023")</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 34341-2024</t>
+          <t>A 61558-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45525</v>
+        <v>45265</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -942,11 +937,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>14.4</v>
+        <v>1.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -955,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -973,52 +968,52 @@
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Desmeknopp</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 34341-2024 artfynd.xlsx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 61558-2023 artfynd.xlsx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 34341-2024 karta.png", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 61558-2023 karta.png", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 34341-2024 FSC-klagomål.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 61558-2023 FSC-klagomål.docx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 34341-2024 FSC-klagomål mail.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 61558-2023 FSC-klagomål mail.docx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 34341-2024 tillsynsbegäran.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 61558-2023 tillsynsbegäran.docx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 34341-2024 tillsynsbegäran mail.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 61558-2023 tillsynsbegäran mail.docx", "A 61558-2023")</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 31213-2023</t>
+          <t>A 60891-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45113</v>
+        <v>45644</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1031,16 +1026,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>6.5</v>
+        <v>16.1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1055,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1065,45 +1060,45 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Skogsveronika</t>
+          <t>Lövgroda</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 31213-2023 artfynd.xlsx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 60891-2024 artfynd.xlsx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 31213-2023 karta.png", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 60891-2024 karta.png", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 31213-2023 FSC-klagomål.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 60891-2024 FSC-klagomål.docx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 31213-2023 FSC-klagomål mail.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 60891-2024 FSC-klagomål mail.docx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 31213-2023 tillsynsbegäran.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 60891-2024 tillsynsbegäran.docx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 31213-2023 tillsynsbegäran mail.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 60891-2024 tillsynsbegäran mail.docx", "A 60891-2024")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 13766-2023</t>
+          <t>A 49546-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45007</v>
+        <v>45939</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1116,13 +1111,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1150,45 +1145,45 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Större vattensalamander</t>
+          <t>Igelkottsröksvamp</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 13766-2023 artfynd.xlsx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 49546-2025 artfynd.xlsx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 13766-2023 karta.png", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 49546-2025 karta.png", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 13766-2023 FSC-klagomål.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 49546-2025 FSC-klagomål.docx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 13766-2023 FSC-klagomål mail.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 49546-2025 FSC-klagomål mail.docx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 13766-2023 tillsynsbegäran.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 49546-2025 tillsynsbegäran.docx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 13766-2023 tillsynsbegäran mail.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 49546-2025 tillsynsbegäran mail.docx", "A 49546-2025")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 49546-2025</t>
+          <t>A 31213-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45939</v>
+        <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1201,16 +1196,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.4</v>
+        <v>6.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1225,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1235,45 +1230,45 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Igelkottsröksvamp</t>
+          <t>Skogsveronika</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 49546-2025 artfynd.xlsx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 31213-2023 artfynd.xlsx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 49546-2025 karta.png", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 31213-2023 karta.png", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 49546-2025 FSC-klagomål.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 31213-2023 FSC-klagomål.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 49546-2025 FSC-klagomål mail.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 31213-2023 FSC-klagomål mail.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 49546-2025 tillsynsbegäran.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 31213-2023 tillsynsbegäran.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 49546-2025 tillsynsbegäran mail.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 31213-2023 tillsynsbegäran mail.docx", "A 31213-2023")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 60891-2024</t>
+          <t>A 34341-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45644</v>
+        <v>45525</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1285,17 +1280,22 @@
           <t>YSTAD</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>16.1</v>
+        <v>14.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1320,31 +1320,31 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Lövgroda</t>
+          <t>Desmeknopp</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 60891-2024 artfynd.xlsx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 34341-2024 artfynd.xlsx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 60891-2024 karta.png", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 34341-2024 karta.png", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 60891-2024 FSC-klagomål.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 34341-2024 FSC-klagomål.docx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 60891-2024 FSC-klagomål mail.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 34341-2024 FSC-klagomål mail.docx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 60891-2024 tillsynsbegäran.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 34341-2024 tillsynsbegäran.docx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 60891-2024 tillsynsbegäran mail.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 34341-2024 tillsynsbegäran mail.docx", "A 34341-2024")</f>
         <v/>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
         <v>44393</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>44393</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>44617</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1522,14 +1522,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 40417-2022</t>
+          <t>A 32596-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44823</v>
+        <v>45513.61667824074</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1579,14 +1579,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 49536-2025</t>
+          <t>A 40417-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45939.4221875</v>
+        <v>44823</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1636,14 +1636,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 49543-2025</t>
+          <t>A 49536-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45939.42862268518</v>
+        <v>45939.4221875</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1693,14 +1693,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 34302-2024</t>
+          <t>A 49543-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45524</v>
+        <v>45939.42862268518</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1750,14 +1750,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 32596-2024</t>
+          <t>A 18090-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45513.61667824074</v>
+        <v>44684</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.6</v>
+        <v>4.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1814,7 +1814,7 @@
         <v>45260</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1864,14 +1864,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 49549-2025</t>
+          <t>A 38631-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45939</v>
+        <v>45162</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1921,14 +1921,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 38631-2023</t>
+          <t>A 22195-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45162</v>
+        <v>45069.74605324074</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1940,8 +1940,13 @@
           <t>YSTAD</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1978,14 +1983,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 18090-2022</t>
+          <t>A 49549-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44684</v>
+        <v>45939</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1998,7 +2003,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.9</v>
+        <v>0.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2035,14 +2040,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 22195-2023</t>
+          <t>A 34302-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45069.74605324074</v>
+        <v>45524</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2054,13 +2059,8 @@
           <t>YSTAD</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>

--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45679</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44903</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44756</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45007</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>45265</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>45644</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>45939</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>45525</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44393</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>44393</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>44617</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>45513.61667824074</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>44823</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45939.4221875</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>45939.42862268518</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>44684</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>45260</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>45162</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>45069.74605324074</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45939</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>45524</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45679</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44903</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44756</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45007</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>45265</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>45644</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>45939</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>45525</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44393</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>44393</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>44617</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>45513.61667824074</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>44823</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45939.4221875</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>45939.42862268518</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>44684</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>45260</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>45162</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>45069.74605324074</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45939</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>45524</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>

--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45679</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44903</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44756</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,14 +831,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 13766-2023</t>
+          <t>A 34341-2024</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45007</v>
+        <v>45525</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -850,17 +850,22 @@
           <t>YSTAD</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G5" t="n">
-        <v>0.9</v>
+        <v>14.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -875,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -885,45 +890,45 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>Större vattensalamander</t>
+          <t>Desmeknopp</t>
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 13766-2023 artfynd.xlsx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 34341-2024 artfynd.xlsx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 13766-2023 karta.png", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 34341-2024 karta.png", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 13766-2023 FSC-klagomål.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 34341-2024 FSC-klagomål.docx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 13766-2023 FSC-klagomål mail.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 34341-2024 FSC-klagomål mail.docx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 13766-2023 tillsynsbegäran.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 34341-2024 tillsynsbegäran.docx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 13766-2023 tillsynsbegäran mail.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 34341-2024 tillsynsbegäran mail.docx", "A 34341-2024")</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 61558-2023</t>
+          <t>A 13766-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45265</v>
+        <v>45007</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -935,16 +940,11 @@
           <t>YSTAD</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G6" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -965,55 +965,55 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Större vattensalamander</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 61558-2023 artfynd.xlsx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 13766-2023 artfynd.xlsx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 61558-2023 karta.png", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 13766-2023 karta.png", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 61558-2023 FSC-klagomål.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 13766-2023 FSC-klagomål.docx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 61558-2023 FSC-klagomål mail.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 13766-2023 FSC-klagomål mail.docx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 61558-2023 tillsynsbegäran.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 13766-2023 tillsynsbegäran.docx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 61558-2023 tillsynsbegäran mail.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 13766-2023 tillsynsbegäran mail.docx", "A 13766-2023")</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 60891-2024</t>
+          <t>A 31213-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45644</v>
+        <v>45113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>16.1</v>
+        <v>6.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1060,45 +1060,45 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Lövgroda</t>
+          <t>Skogsveronika</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 60891-2024 artfynd.xlsx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 31213-2023 artfynd.xlsx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 60891-2024 karta.png", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 31213-2023 karta.png", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 60891-2024 FSC-klagomål.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 31213-2023 FSC-klagomål.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 60891-2024 FSC-klagomål mail.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 31213-2023 FSC-klagomål mail.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 60891-2024 tillsynsbegäran.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 31213-2023 tillsynsbegäran.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 60891-2024 tillsynsbegäran mail.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 31213-2023 tillsynsbegäran mail.docx", "A 31213-2023")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 49546-2025</t>
+          <t>A 60891-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45939</v>
+        <v>45644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.4</v>
+        <v>16.1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1145,45 +1145,45 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Igelkottsröksvamp</t>
+          <t>Lövgroda</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 49546-2025 artfynd.xlsx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 60891-2024 artfynd.xlsx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 49546-2025 karta.png", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 60891-2024 karta.png", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 49546-2025 FSC-klagomål.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 60891-2024 FSC-klagomål.docx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 49546-2025 FSC-klagomål mail.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 60891-2024 FSC-klagomål mail.docx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 49546-2025 tillsynsbegäran.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 60891-2024 tillsynsbegäran.docx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 49546-2025 tillsynsbegäran mail.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 60891-2024 tillsynsbegäran mail.docx", "A 60891-2024")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 31213-2023</t>
+          <t>A 61558-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45113</v>
+        <v>45265</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1195,8 +1195,13 @@
           <t>YSTAD</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1205,13 +1210,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1223,52 +1228,52 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Skogsveronika</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 31213-2023 artfynd.xlsx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 61558-2023 artfynd.xlsx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 31213-2023 karta.png", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 61558-2023 karta.png", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 31213-2023 FSC-klagomål.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 61558-2023 FSC-klagomål.docx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 31213-2023 FSC-klagomål mail.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 61558-2023 FSC-klagomål mail.docx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 31213-2023 tillsynsbegäran.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 61558-2023 tillsynsbegäran.docx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 31213-2023 tillsynsbegäran mail.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 61558-2023 tillsynsbegäran mail.docx", "A 61558-2023")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 34341-2024</t>
+          <t>A 49546-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45525</v>
+        <v>45939</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1280,22 +1285,17 @@
           <t>YSTAD</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>14.4</v>
+        <v>4.4</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1320,31 +1320,31 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Desmeknopp</t>
+          <t>Igelkottsröksvamp</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 34341-2024 artfynd.xlsx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 49546-2025 artfynd.xlsx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 34341-2024 karta.png", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 49546-2025 karta.png", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 34341-2024 FSC-klagomål.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 49546-2025 FSC-klagomål.docx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 34341-2024 FSC-klagomål mail.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 49546-2025 FSC-klagomål mail.docx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 34341-2024 tillsynsbegäran.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 49546-2025 tillsynsbegäran.docx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 34341-2024 tillsynsbegäran mail.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 49546-2025 tillsynsbegäran mail.docx", "A 49546-2025")</f>
         <v/>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
         <v>44393</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>44393</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>44617</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1522,14 +1522,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 32596-2024</t>
+          <t>A 34302-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45513.61667824074</v>
+        <v>45524</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1579,14 +1579,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 40417-2022</t>
+          <t>A 60803-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44823</v>
+        <v>45260</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1636,14 +1636,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 49536-2025</t>
+          <t>A 40417-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45939.4221875</v>
+        <v>44823</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1693,14 +1693,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 49543-2025</t>
+          <t>A 38631-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45939.42862268518</v>
+        <v>45162</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>44684</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1807,14 +1807,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 60803-2023</t>
+          <t>A 49536-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45260</v>
+        <v>45939.4221875</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1864,14 +1864,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 38631-2023</t>
+          <t>A 49543-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45162</v>
+        <v>45939.42862268518</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1928,7 +1928,7 @@
         <v>45069.74605324074</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45939</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2040,14 +2040,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 34302-2024</t>
+          <t>A 32596-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45524</v>
+        <v>45513.61667824074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>

--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45679</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44903</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44756</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,14 +831,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 34341-2024</t>
+          <t>A 61558-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45525</v>
+        <v>45265</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -852,11 +852,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>14.4</v>
+        <v>1.5</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -883,38 +883,38 @@
         <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>Desmeknopp</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 34341-2024 artfynd.xlsx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 61558-2023 artfynd.xlsx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 34341-2024 karta.png", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 61558-2023 karta.png", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 34341-2024 FSC-klagomål.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 61558-2023 FSC-klagomål.docx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 34341-2024 FSC-klagomål mail.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 61558-2023 FSC-klagomål mail.docx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 34341-2024 tillsynsbegäran.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 61558-2023 tillsynsbegäran.docx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 34341-2024 tillsynsbegäran mail.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 61558-2023 tillsynsbegäran mail.docx", "A 61558-2023")</f>
         <v/>
       </c>
     </row>
@@ -928,7 +928,7 @@
         <v>45007</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1006,14 +1006,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 31213-2023</t>
+          <t>A 60891-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45113</v>
+        <v>45644</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>6.5</v>
+        <v>16.1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1060,45 +1060,45 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Skogsveronika</t>
+          <t>Lövgroda</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 31213-2023 artfynd.xlsx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 60891-2024 artfynd.xlsx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 31213-2023 karta.png", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 60891-2024 karta.png", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 31213-2023 FSC-klagomål.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 60891-2024 FSC-klagomål.docx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 31213-2023 FSC-klagomål mail.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 60891-2024 FSC-klagomål mail.docx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 31213-2023 tillsynsbegäran.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 60891-2024 tillsynsbegäran.docx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 31213-2023 tillsynsbegäran mail.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 60891-2024 tillsynsbegäran mail.docx", "A 60891-2024")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 60891-2024</t>
+          <t>A 49546-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45644</v>
+        <v>45939</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>16.1</v>
+        <v>4.4</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1145,45 +1145,45 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Lövgroda</t>
+          <t>Igelkottsröksvamp</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 60891-2024 artfynd.xlsx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 49546-2025 artfynd.xlsx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 60891-2024 karta.png", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 49546-2025 karta.png", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 60891-2024 FSC-klagomål.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 49546-2025 FSC-klagomål.docx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 60891-2024 FSC-klagomål mail.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 49546-2025 FSC-klagomål mail.docx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 60891-2024 tillsynsbegäran.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 49546-2025 tillsynsbegäran.docx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 60891-2024 tillsynsbegäran mail.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 49546-2025 tillsynsbegäran mail.docx", "A 49546-2025")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 61558-2023</t>
+          <t>A 31213-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45265</v>
+        <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1195,13 +1195,8 @@
           <t>YSTAD</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1210,13 +1205,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1228,52 +1223,52 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Skogsveronika</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 61558-2023 artfynd.xlsx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 31213-2023 artfynd.xlsx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 61558-2023 karta.png", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 31213-2023 karta.png", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 61558-2023 FSC-klagomål.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 31213-2023 FSC-klagomål.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 61558-2023 FSC-klagomål mail.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 31213-2023 FSC-klagomål mail.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 61558-2023 tillsynsbegäran.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 31213-2023 tillsynsbegäran.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 61558-2023 tillsynsbegäran mail.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 31213-2023 tillsynsbegäran mail.docx", "A 31213-2023")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 49546-2025</t>
+          <t>A 34341-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45939</v>
+        <v>45525</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1285,17 +1280,22 @@
           <t>YSTAD</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G10" t="n">
-        <v>4.4</v>
+        <v>14.4</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1320,31 +1320,31 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Igelkottsröksvamp</t>
+          <t>Desmeknopp</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 49546-2025 artfynd.xlsx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 34341-2024 artfynd.xlsx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 49546-2025 karta.png", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 34341-2024 karta.png", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 49546-2025 FSC-klagomål.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 34341-2024 FSC-klagomål.docx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 49546-2025 FSC-klagomål mail.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 34341-2024 FSC-klagomål mail.docx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 49546-2025 tillsynsbegäran.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 34341-2024 tillsynsbegäran.docx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 49546-2025 tillsynsbegäran mail.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 34341-2024 tillsynsbegäran mail.docx", "A 34341-2024")</f>
         <v/>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
         <v>44393</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>44393</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>44617</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1522,14 +1522,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 34302-2024</t>
+          <t>A 49536-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45524</v>
+        <v>45939.4221875</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1579,14 +1579,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 60803-2023</t>
+          <t>A 49543-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45260</v>
+        <v>45939.42862268518</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1636,14 +1636,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 40417-2022</t>
+          <t>A 32596-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44823</v>
+        <v>45513.61667824074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1693,14 +1693,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 38631-2023</t>
+          <t>A 40417-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45162</v>
+        <v>44823</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>44684</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1807,14 +1807,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 49536-2025</t>
+          <t>A 60803-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45939.4221875</v>
+        <v>45260</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1864,14 +1864,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 49543-2025</t>
+          <t>A 38631-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45939.42862268518</v>
+        <v>45162</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1921,14 +1921,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 22195-2023</t>
+          <t>A 49549-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45069.74605324074</v>
+        <v>45939</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1940,13 +1940,8 @@
           <t>YSTAD</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1983,14 +1978,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 49549-2025</t>
+          <t>A 22195-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45939</v>
+        <v>45069.74605324074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2002,8 +1997,13 @@
           <t>YSTAD</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2040,14 +2040,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 32596-2024</t>
+          <t>A 34302-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45513.61667824074</v>
+        <v>45524</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>

--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45679</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44903</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44756</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,14 +831,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 61558-2023</t>
+          <t>A 34341-2024</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45265</v>
+        <v>45525</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -852,11 +852,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.5</v>
+        <v>14.4</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -883,52 +883,52 @@
         <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Desmeknopp</t>
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 61558-2023 artfynd.xlsx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 34341-2024 artfynd.xlsx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 61558-2023 karta.png", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 34341-2024 karta.png", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 61558-2023 FSC-klagomål.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 34341-2024 FSC-klagomål.docx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 61558-2023 FSC-klagomål mail.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 34341-2024 FSC-klagomål mail.docx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 61558-2023 tillsynsbegäran.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 34341-2024 tillsynsbegäran.docx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 61558-2023 tillsynsbegäran mail.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 34341-2024 tillsynsbegäran mail.docx", "A 34341-2024")</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 13766-2023</t>
+          <t>A 31213-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45007</v>
+        <v>45113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -941,16 +941,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.9</v>
+        <v>6.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -975,45 +975,45 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Större vattensalamander</t>
+          <t>Skogsveronika</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 13766-2023 artfynd.xlsx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 31213-2023 artfynd.xlsx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 13766-2023 karta.png", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 31213-2023 karta.png", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 13766-2023 FSC-klagomål.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 31213-2023 FSC-klagomål.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 13766-2023 FSC-klagomål mail.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 31213-2023 FSC-klagomål mail.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 13766-2023 tillsynsbegäran.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 31213-2023 tillsynsbegäran.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 13766-2023 tillsynsbegäran mail.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 31213-2023 tillsynsbegäran mail.docx", "A 31213-2023")</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 60891-2024</t>
+          <t>A 13766-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45644</v>
+        <v>45007</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>16.1</v>
+        <v>0.9</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -1060,45 +1060,45 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Lövgroda</t>
+          <t>Större vattensalamander</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 60891-2024 artfynd.xlsx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 13766-2023 artfynd.xlsx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 60891-2024 karta.png", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 13766-2023 karta.png", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 60891-2024 FSC-klagomål.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 13766-2023 FSC-klagomål.docx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 60891-2024 FSC-klagomål mail.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 13766-2023 FSC-klagomål mail.docx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 60891-2024 tillsynsbegäran.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 13766-2023 tillsynsbegäran.docx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 60891-2024 tillsynsbegäran mail.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 13766-2023 tillsynsbegäran mail.docx", "A 13766-2023")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 49546-2025</t>
+          <t>A 60891-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45939</v>
+        <v>45644</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.4</v>
+        <v>16.1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1145,45 +1145,45 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Igelkottsröksvamp</t>
+          <t>Lövgroda</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 49546-2025 artfynd.xlsx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 60891-2024 artfynd.xlsx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 49546-2025 karta.png", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 60891-2024 karta.png", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 49546-2025 FSC-klagomål.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 60891-2024 FSC-klagomål.docx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 49546-2025 FSC-klagomål mail.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 60891-2024 FSC-klagomål mail.docx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 49546-2025 tillsynsbegäran.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 60891-2024 tillsynsbegäran.docx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 49546-2025 tillsynsbegäran mail.docx", "A 49546-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 60891-2024 tillsynsbegäran mail.docx", "A 60891-2024")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 31213-2023</t>
+          <t>A 61558-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45113</v>
+        <v>45265</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1195,8 +1195,13 @@
           <t>YSTAD</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G9" t="n">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1205,13 +1210,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1223,52 +1228,52 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Skogsveronika</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 31213-2023 artfynd.xlsx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 61558-2023 artfynd.xlsx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 31213-2023 karta.png", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 61558-2023 karta.png", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 31213-2023 FSC-klagomål.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 61558-2023 FSC-klagomål.docx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 31213-2023 FSC-klagomål mail.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 61558-2023 FSC-klagomål mail.docx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 31213-2023 tillsynsbegäran.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 61558-2023 tillsynsbegäran.docx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 31213-2023 tillsynsbegäran mail.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 61558-2023 tillsynsbegäran mail.docx", "A 61558-2023")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 34341-2024</t>
+          <t>A 49546-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45525</v>
+        <v>45939</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1280,22 +1285,17 @@
           <t>YSTAD</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G10" t="n">
-        <v>14.4</v>
+        <v>4.4</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1320,31 +1320,31 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Desmeknopp</t>
+          <t>Igelkottsröksvamp</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 34341-2024 artfynd.xlsx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 49546-2025 artfynd.xlsx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 34341-2024 karta.png", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 49546-2025 karta.png", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 34341-2024 FSC-klagomål.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 49546-2025 FSC-klagomål.docx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 34341-2024 FSC-klagomål mail.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 49546-2025 FSC-klagomål mail.docx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 34341-2024 tillsynsbegäran.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 49546-2025 tillsynsbegäran.docx", "A 49546-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 34341-2024 tillsynsbegäran mail.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 49546-2025 tillsynsbegäran mail.docx", "A 49546-2025")</f>
         <v/>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
         <v>44393</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>44393</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>44617</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1522,14 +1522,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 49536-2025</t>
+          <t>A 60803-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45939.4221875</v>
+        <v>45260</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1579,14 +1579,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 49543-2025</t>
+          <t>A 40417-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45939.42862268518</v>
+        <v>44823</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1636,14 +1636,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 32596-2024</t>
+          <t>A 22195-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45513.61667824074</v>
+        <v>45069.74605324074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1655,8 +1655,13 @@
           <t>YSTAD</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1693,14 +1698,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 40417-2022</t>
+          <t>A 34302-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44823</v>
+        <v>45524</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1713,7 +1718,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1750,14 +1755,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 18090-2022</t>
+          <t>A 38631-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44684</v>
+        <v>45162</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1770,7 +1775,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.9</v>
+        <v>0.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1807,14 +1812,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 60803-2023</t>
+          <t>A 18090-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45260</v>
+        <v>44684</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1827,7 +1832,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.6</v>
+        <v>4.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1864,14 +1869,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 38631-2023</t>
+          <t>A 49536-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45162</v>
+        <v>45939.4221875</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1884,7 +1889,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1921,14 +1926,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 49549-2025</t>
+          <t>A 49543-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45939</v>
+        <v>45939.42862268518</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1941,7 +1946,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1978,14 +1983,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 22195-2023</t>
+          <t>A 32596-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45069.74605324074</v>
+        <v>45513.61667824074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1997,13 +2002,8 @@
           <t>YSTAD</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2040,14 +2040,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 34302-2024</t>
+          <t>A 49549-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45524</v>
+        <v>45939</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>

--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45679</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44903</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44756</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,14 +831,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 34341-2024</t>
+          <t>A 61558-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45525</v>
+        <v>45265</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -852,11 +852,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>14.4</v>
+        <v>1.5</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -883,52 +883,52 @@
         <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>Desmeknopp</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 34341-2024 artfynd.xlsx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 61558-2023 artfynd.xlsx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 34341-2024 karta.png", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 61558-2023 karta.png", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 34341-2024 FSC-klagomål.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 61558-2023 FSC-klagomål.docx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 34341-2024 FSC-klagomål mail.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 61558-2023 FSC-klagomål mail.docx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 34341-2024 tillsynsbegäran.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 61558-2023 tillsynsbegäran.docx", "A 61558-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 34341-2024 tillsynsbegäran mail.docx", "A 34341-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 61558-2023 tillsynsbegäran mail.docx", "A 61558-2023")</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 31213-2023</t>
+          <t>A 34341-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45113</v>
+        <v>45525</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -940,8 +940,13 @@
           <t>YSTAD</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>6.5</v>
+        <v>14.4</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -975,45 +980,45 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Skogsveronika</t>
+          <t>Desmeknopp</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 31213-2023 artfynd.xlsx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 34341-2024 artfynd.xlsx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 31213-2023 karta.png", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 34341-2024 karta.png", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 31213-2023 FSC-klagomål.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 34341-2024 FSC-klagomål.docx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 31213-2023 FSC-klagomål mail.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 34341-2024 FSC-klagomål mail.docx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 31213-2023 tillsynsbegäran.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 34341-2024 tillsynsbegäran.docx", "A 34341-2024")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 31213-2023 tillsynsbegäran mail.docx", "A 31213-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 34341-2024 tillsynsbegäran mail.docx", "A 34341-2024")</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 13766-2023</t>
+          <t>A 31213-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45007</v>
+        <v>45113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1026,16 +1031,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.9</v>
+        <v>6.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1050,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1060,45 +1065,45 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Större vattensalamander</t>
+          <t>Skogsveronika</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 13766-2023 artfynd.xlsx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 31213-2023 artfynd.xlsx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 13766-2023 karta.png", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 31213-2023 karta.png", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 13766-2023 FSC-klagomål.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 31213-2023 FSC-klagomål.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 13766-2023 FSC-klagomål mail.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 31213-2023 FSC-klagomål mail.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 13766-2023 tillsynsbegäran.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 31213-2023 tillsynsbegäran.docx", "A 31213-2023")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 13766-2023 tillsynsbegäran mail.docx", "A 13766-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 31213-2023 tillsynsbegäran mail.docx", "A 31213-2023")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 60891-2024</t>
+          <t>A 13766-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45644</v>
+        <v>45007</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1111,7 +1116,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>16.1</v>
+        <v>0.9</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1145,45 +1150,45 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Lövgroda</t>
+          <t>Större vattensalamander</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 60891-2024 artfynd.xlsx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 13766-2023 artfynd.xlsx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 60891-2024 karta.png", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 13766-2023 karta.png", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 60891-2024 FSC-klagomål.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 13766-2023 FSC-klagomål.docx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 60891-2024 FSC-klagomål mail.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 13766-2023 FSC-klagomål mail.docx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 60891-2024 tillsynsbegäran.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 13766-2023 tillsynsbegäran.docx", "A 13766-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 60891-2024 tillsynsbegäran mail.docx", "A 60891-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 13766-2023 tillsynsbegäran mail.docx", "A 13766-2023")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 61558-2023</t>
+          <t>A 60891-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45265</v>
+        <v>45644</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1195,16 +1200,11 @@
           <t>YSTAD</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G9" t="n">
-        <v>1.5</v>
+        <v>16.1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1225,41 +1225,41 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Lövgroda</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 61558-2023 artfynd.xlsx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/artfynd/A 60891-2024 artfynd.xlsx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 61558-2023 karta.png", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/kartor/A 60891-2024 karta.png", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 61558-2023 FSC-klagomål.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomål/A 60891-2024 FSC-klagomål.docx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 61558-2023 FSC-klagomål mail.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/klagomålsmail/A 60891-2024 FSC-klagomål mail.docx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 61558-2023 tillsynsbegäran.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsyn/A 60891-2024 tillsynsbegäran.docx", "A 60891-2024")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 61558-2023 tillsynsbegäran mail.docx", "A 61558-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1286/tillsynsmail/A 60891-2024 tillsynsbegäran mail.docx", "A 60891-2024")</f>
         <v/>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
         <v>45939</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44393</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>44393</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>44617</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1522,14 +1522,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 60803-2023</t>
+          <t>A 40417-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45260</v>
+        <v>44823</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1579,14 +1579,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 40417-2022</t>
+          <t>A 34302-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44823</v>
+        <v>45524</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1636,14 +1636,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 22195-2023</t>
+          <t>A 60803-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45069.74605324074</v>
+        <v>45260</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1655,13 +1655,8 @@
           <t>YSTAD</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1698,14 +1693,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 34302-2024</t>
+          <t>A 32596-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45524</v>
+        <v>45513.61667824074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1718,7 +1713,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1755,14 +1750,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 38631-2023</t>
+          <t>A 49536-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45162</v>
+        <v>45939.4221875</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1775,7 +1770,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1812,14 +1807,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 18090-2022</t>
+          <t>A 49543-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44684</v>
+        <v>45939.42862268518</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1832,7 +1827,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.9</v>
+        <v>1.4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1869,14 +1864,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 49536-2025</t>
+          <t>A 38631-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45939.4221875</v>
+        <v>45162</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1889,7 +1884,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1926,14 +1921,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 49543-2025</t>
+          <t>A 18090-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45939.42862268518</v>
+        <v>44684</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1946,7 +1941,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.4</v>
+        <v>4.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1983,14 +1978,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 32596-2024</t>
+          <t>A 49549-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45513.61667824074</v>
+        <v>45939</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2003,7 +1998,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2040,14 +2035,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 49549-2025</t>
+          <t>A 22195-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45939</v>
+        <v>45069.74605324074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2059,8 +2054,13 @@
           <t>YSTAD</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>

--- a/Översikt YSTAD.xlsx
+++ b/Översikt YSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>45679</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44903</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44756</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45265</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         <v>45525</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>45113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>45007</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         <v>45644</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>45939</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         <v>44393</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>44393</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>44617</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         <v>44823</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>45524</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45260</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>45513.61667824074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>45939.4221875</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>45939.42862268518</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>45162</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         <v>44684</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>45939</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         <v>45069.74605324074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
